--- a/form-files/household_member/household_member.xlsx
+++ b/form-files/household_member/household_member.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="23655" windowHeight="18240"/>
+    <workbookView xWindow="288" yWindow="3144" windowWidth="23652" windowHeight="18240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -123,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -266,6 +266,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -300,6 +301,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,22 +477,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -515,7 +517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -526,7 +528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -537,7 +539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="25.5" customHeight="1">
+    <row r="5" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -548,7 +550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33.75" customHeight="1">
+    <row r="6" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -559,7 +561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29.25" customHeight="1">
+    <row r="7" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -577,20 +579,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -601,7 +603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -612,7 +614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -623,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -634,7 +636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -651,19 +653,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -671,7 +673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -679,15 +681,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" customHeight="1">
+    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="12.75" customHeight="1">
+        <v>20130408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>

--- a/form-files/household_member/household_member.xlsx
+++ b/form-files/household_member/household_member.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="3144" windowWidth="23652" windowHeight="18240" activeTab="2"/>
+    <workbookView xWindow="288" yWindow="3144" windowWidth="23652" windowHeight="18240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="3" r:id="rId2"/>
     <sheet name="settings" sheetId="4" r:id="rId3"/>
+    <sheet name="model" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>type</t>
   </si>
@@ -118,13 +119,98 @@
   </si>
   <si>
     <t>Which household members are cousins of this household member?</t>
+  </si>
+  <si>
+    <t>member_name</t>
+  </si>
+  <si>
+    <t>Enter the name of the household member:</t>
+  </si>
+  <si>
+    <t>household</t>
+  </si>
+  <si>
+    <t>household_id</t>
+  </si>
+  <si>
+    <t>readonly</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>readonly is not implemented, but this would be a note-like field that was set to be the parent table key via the extra URL arguments.  It could be hidden and only displayed as a reference in a prompt label.</t>
+  </si>
+  <si>
+    <t>Unique barcode ID or locator designation for this household (foreign key into household table).</t>
+  </si>
+  <si>
+    <t>schema.type</t>
+  </si>
+  <si>
+    <t>schema.joins[0].table_id</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>schema.joins[0].element_name</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This would insert a 'joins' entry into the column_definitions table for the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>household_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> column of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>household_member</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> table_id of the form: 
+"[ { table_id: household, element_name: household_id } ]"
+The way to define joins is undoubtedly broken in the current XLSXConverter, as there is no way to parse lists of values (as far as I know). I will research how to fix this.</t>
+    </r>
+  </si>
+  <si>
+    <t>table_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -141,6 +227,13 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -167,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -177,6 +270,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -490,9 +590,10 @@
     <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="3" max="3" width="41.88671875" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,70 +606,106 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -654,10 +791,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -697,7 +834,71 @@
         <v>26</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="34.33203125" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/form-files/household_member/household_member.xlsx
+++ b/form-files/household_member/household_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="3144" windowWidth="23652" windowHeight="18240" activeTab="3"/>
+    <workbookView xWindow="288" yWindow="3144" windowWidth="23652" windowHeight="18240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>type</t>
   </si>
@@ -25,24 +25,12 @@
     <t>name</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>hint</t>
-  </si>
-  <si>
-    <t>select_one yesno</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
     <t>integer</t>
   </si>
   <si>
-    <t>list_name</t>
-  </si>
-  <si>
     <t>yesno</t>
   </si>
   <si>
@@ -61,9 +49,6 @@
     <t>female</t>
   </si>
   <si>
-    <t>setting</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -73,9 +58,6 @@
     <t>form_version</t>
   </si>
   <si>
-    <t>form_title</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -88,9 +70,6 @@
     <t>sex</t>
   </si>
   <si>
-    <t>select_one sexes</t>
-  </si>
-  <si>
     <t>Does this household member contribute to the household income?</t>
   </si>
   <si>
@@ -145,23 +124,20 @@
     <t>Unique barcode ID or locator designation for this household (foreign key into household table).</t>
   </si>
   <si>
-    <t>schema.type</t>
-  </si>
-  <si>
-    <t>schema.joins[0].table_id</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>schema.joins[0].element_name</t>
-  </si>
-  <si>
-    <t>comment</t>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>display.text</t>
+  </si>
+  <si>
+    <t>setting_name</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">This would insert a 'joins' entry into the column_definitions table for the </t>
+      <t xml:space="preserve">This inserts a 'joins' entry into the column_definitions table for the </t>
     </r>
     <r>
       <rPr>
@@ -199,23 +175,45 @@
       </rPr>
       <t xml:space="preserve"> table_id of the form: 
 "[ { table_id: household, element_name: household_id } ]"
-The way to define joins is undoubtedly broken in the current XLSXConverter, as there is no way to parse lists of values (as far as I know). I will research how to fix this.</t>
+</t>
     </r>
   </si>
   <si>
-    <t>table_id</t>
+    <t>choice_list_name</t>
+  </si>
+  <si>
+    <t>data_value</t>
+  </si>
+  <si>
+    <t>display.image</t>
+  </si>
+  <si>
+    <t>value_list</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>display.hint</t>
+  </si>
+  <si>
+    <t>joins[0].table_id</t>
+  </si>
+  <si>
+    <t>joins[0].element_name</t>
+  </si>
+  <si>
+    <t>display.title</t>
+  </si>
+  <si>
+    <t>survey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -265,17 +263,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,137 +576,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="41.88671875" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -717,71 +731,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="1" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -791,55 +810,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
+    <row r="1" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>25</v>
+    </row>
+    <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -851,52 +876,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="46.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="132.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>30</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
